--- a/biology/Zoologie/Adelphobates_galactonotus/Adelphobates_galactonotus.xlsx
+++ b/biology/Zoologie/Adelphobates_galactonotus/Adelphobates_galactonotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelphobates galactonotus est une espèce d'amphibiens de la famille des Dendrobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelphobates galactonotus est une espèce d'amphibiens de la famille des Dendrobatidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1]. Elle se rencontre dans les États du Pará, du Maranhão et du Tocantins[2].
-Elle vit dans la forêt tropicale humide. C'est une espèce terrestre qui vit sur la litière de feuille[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États du Pará, du Maranhão et du Tocantins.
+Elle vit dans la forêt tropicale humide. C'est une espèce terrestre qui vit sur la litière de feuille.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La reproduction se fait dans des flaques d'eau temporaires. Les œufs sont déposés sur le sol, les têtards sont ensuite transportés dans de l'eau[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La reproduction se fait dans des flaques d'eau temporaires. Les œufs sont déposés sur le sol, les têtards sont ensuite transportés dans de l'eau.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa publication originale, Steindachner attribue le taxon Dendrobates galactonotus à Leopold Fitzinger toutefois, selon l'ASW, c'est clairement Steindachner qui en a effectué la description[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa publication originale, Steindachner attribue le taxon Dendrobates galactonotus à Leopold Fitzinger toutefois, selon l'ASW, c'est clairement Steindachner qui en a effectué la description.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Steindachner, 1864 : Batrachologische Mittheilungen. Verhandlungen der Kaiserlich-Königlichen Zoologisch-Botanischen Gesellschaft in Wien, vol. 14, p. 239–288 (texte intégral).</t>
         </is>
